--- a/ana/éxcell gestamp_ana/Planta1/pla1 linea1/Linea1 turno1.xlsx
+++ b/ana/éxcell gestamp_ana/Planta1/pla1 linea1/Linea1 turno1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\RPA\proyecto\programa\éxcell gestamp\Planta1\pla1 linea1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\ana\éxcell gestamp_ana\Planta1\pla1 linea1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978D2DA9-8E32-4670-8AE9-5CC4A5D1114C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2598FE65-7DAB-45BD-8C86-F56F71252DCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -322,7 +322,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,6 +341,24 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -625,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -768,6 +786,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1258,7 +1285,7 @@
   <dimension ref="A1:AQ29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1846,9 +1873,9 @@
         <v>58</v>
       </c>
       <c r="B11" s="7">
-        <v>3</v>
-      </c>
-      <c r="C11" s="8">
+        <v>2</v>
+      </c>
+      <c r="C11" s="51">
         <v>0</v>
       </c>
       <c r="D11" s="8">
@@ -1976,7 +2003,7 @@
       <c r="B12" s="7">
         <v>1</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="51">
         <v>0</v>
       </c>
       <c r="D12" s="8">
@@ -2102,9 +2129,9 @@
         <v>60</v>
       </c>
       <c r="B13" s="7">
-        <v>3</v>
-      </c>
-      <c r="C13" s="8">
+        <v>2</v>
+      </c>
+      <c r="C13" s="51">
         <v>1</v>
       </c>
       <c r="D13" s="8">
@@ -2230,9 +2257,9 @@
         <v>61</v>
       </c>
       <c r="B14" s="7">
-        <v>3</v>
-      </c>
-      <c r="C14" s="8">
+        <v>2</v>
+      </c>
+      <c r="C14" s="51">
         <v>3</v>
       </c>
       <c r="D14" s="8">
@@ -2357,14 +2384,16 @@
       <c r="A15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="7">
+        <v>0</v>
+      </c>
       <c r="C15" s="11">
         <v>1</v>
       </c>
-      <c r="D15" s="11">
-        <v>0</v>
-      </c>
-      <c r="E15" s="11">
+      <c r="D15" s="50">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
         <v>0</v>
       </c>
       <c r="F15" s="11">
@@ -2489,7 +2518,7 @@
       <c r="C16" s="11">
         <v>2</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="50">
         <v>0</v>
       </c>
       <c r="E16" s="11">
@@ -2612,12 +2641,12 @@
         <v>64</v>
       </c>
       <c r="B17" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" s="11">
         <v>4</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="50">
         <v>3</v>
       </c>
       <c r="E17" s="11">
@@ -3374,6 +3403,131 @@
       <c r="AQ22" s="17">
         <f>SUM(B22:AP22)</f>
         <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B23" s="49">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>4</v>
+      </c>
+      <c r="G23" s="1">
+        <v>5</v>
+      </c>
+      <c r="H23" s="1">
+        <v>6</v>
+      </c>
+      <c r="I23" s="1">
+        <v>7</v>
+      </c>
+      <c r="J23" s="1">
+        <v>8</v>
+      </c>
+      <c r="K23" s="1">
+        <v>9</v>
+      </c>
+      <c r="L23" s="49">
+        <v>10</v>
+      </c>
+      <c r="M23" s="1">
+        <v>11</v>
+      </c>
+      <c r="N23" s="1">
+        <v>12</v>
+      </c>
+      <c r="O23" s="1">
+        <v>13</v>
+      </c>
+      <c r="P23" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>15</v>
+      </c>
+      <c r="R23" s="1">
+        <v>16</v>
+      </c>
+      <c r="S23" s="1">
+        <v>17</v>
+      </c>
+      <c r="T23" s="1">
+        <v>18</v>
+      </c>
+      <c r="U23" s="1">
+        <v>19</v>
+      </c>
+      <c r="V23" s="49">
+        <v>20</v>
+      </c>
+      <c r="W23" s="1">
+        <v>21</v>
+      </c>
+      <c r="X23" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y23" s="49">
+        <v>23</v>
+      </c>
+      <c r="Z23" s="49">
+        <v>24</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB23" s="49">
+        <v>26</v>
+      </c>
+      <c r="AC23" s="49">
+        <v>27</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE23" s="49">
+        <v>29</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH23" s="49">
+        <v>32</v>
+      </c>
+      <c r="AI23" s="49">
+        <v>33</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>34</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>35</v>
+      </c>
+      <c r="AL23" s="49">
+        <v>36</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>37</v>
+      </c>
+      <c r="AN23" s="1">
+        <v>38</v>
+      </c>
+      <c r="AO23" s="49">
+        <v>39</v>
+      </c>
+      <c r="AP23" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
